--- a/data/Lakes/LakeWiritoaComposite_a033f773e2.xlsx
+++ b/data/Lakes/LakeWiritoaComposite_a033f773e2.xlsx
@@ -492,7 +492,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
@@ -529,7 +529,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C3" s="2" t="n">
@@ -566,7 +566,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C4" s="2" t="n">
@@ -632,7 +632,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C6" s="2" t="n">
@@ -665,7 +665,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C7" s="2" t="n">
@@ -698,7 +698,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C8" s="2" t="n">
@@ -731,7 +731,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C9" s="2" t="n">
@@ -766,7 +766,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C10" s="2" t="n">
@@ -797,7 +797,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C11" s="2" t="n">
@@ -828,7 +828,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C12" s="2" t="n">
@@ -859,7 +859,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C13" s="2" t="n">
@@ -890,7 +890,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C14" s="2" t="n">
@@ -921,7 +921,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C15" s="2" t="n">
@@ -956,7 +956,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C16" s="2" t="n">
@@ -991,7 +991,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C17" s="2" t="n">
@@ -1022,7 +1022,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C18" s="2" t="n">
@@ -1053,7 +1053,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C19" s="2" t="n">
@@ -1084,7 +1084,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C20" s="2" t="n">
@@ -1115,7 +1115,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C21" s="2" t="n">
@@ -1150,7 +1150,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C22" s="2" t="n">
@@ -1185,7 +1185,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C23" s="2" t="n">
@@ -1216,7 +1216,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C24" s="2" t="n">
@@ -1247,7 +1247,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C25" s="2" t="n">
@@ -1278,7 +1278,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C26" s="2" t="n">
@@ -1309,7 +1309,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C27" s="2" t="n">
@@ -1344,7 +1344,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C28" s="2" t="n">
@@ -1379,7 +1379,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C29" s="2" t="n">
@@ -1410,7 +1410,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C30" s="2" t="n">
@@ -1441,7 +1441,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C31" s="2" t="n">
@@ -1468,7 +1468,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C32" s="2" t="n">
@@ -1499,7 +1499,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C33" s="2" t="n">
@@ -1534,7 +1534,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C34" s="2" t="n">
@@ -1565,7 +1565,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C35" s="2" t="n">
@@ -1596,7 +1596,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C36" s="2" t="n">
@@ -1627,7 +1627,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C37" s="2" t="n">
@@ -1658,7 +1658,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C38" s="2" t="n">
@@ -1689,7 +1689,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C39" s="2" t="n">
@@ -1724,7 +1724,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C40" s="2" t="n">
@@ -1759,7 +1759,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C41" s="2" t="n">
@@ -1790,7 +1790,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C42" s="2" t="n">
@@ -1821,7 +1821,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C43" s="2" t="n">
@@ -1852,7 +1852,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C44" s="2" t="n">
@@ -1883,7 +1883,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C45" s="2" t="n">
@@ -1918,7 +1918,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C46" s="2" t="n">
@@ -1953,7 +1953,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C47" s="2" t="n">
@@ -1984,7 +1984,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C48" s="2" t="n">
@@ -2015,7 +2015,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C49" s="2" t="n">
@@ -2046,7 +2046,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C50" s="2" t="n">
@@ -2077,7 +2077,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C51" s="2" t="n">
@@ -2108,7 +2108,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C52" s="2" t="n">
@@ -2143,7 +2143,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C53" s="2" t="n">
@@ -2174,7 +2174,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C54" s="2" t="n">
@@ -2209,7 +2209,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C55" s="2" t="n">
@@ -2240,7 +2240,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C56" s="2" t="n">
@@ -2271,7 +2271,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C57" s="2" t="n">
@@ -2302,7 +2302,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C58" s="2" t="n">
@@ -2333,7 +2333,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C59" s="2" t="n">
@@ -2368,7 +2368,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C60" s="2" t="n">
@@ -2403,7 +2403,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C61" s="2" t="n">
@@ -2434,7 +2434,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C62" s="2" t="n">
@@ -2465,7 +2465,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C63" s="2" t="n">
@@ -2492,7 +2492,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C64" s="2" t="n">
@@ -2523,7 +2523,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C65" s="2" t="n">
@@ -2554,7 +2554,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C66" s="2" t="n">
@@ -2589,7 +2589,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C67" s="2" t="n">
@@ -2624,7 +2624,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C68" s="2" t="n">
@@ -2655,7 +2655,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C69" s="2" t="n">
@@ -2686,7 +2686,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C70" s="2" t="n">
@@ -2717,7 +2717,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C71" s="2" t="n">
@@ -2748,7 +2748,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C72" s="2" t="n">
@@ -2779,7 +2779,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C73" s="2" t="n">
@@ -2810,7 +2810,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C74" s="2" t="n">
@@ -2845,7 +2845,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C75" s="2" t="n">
@@ -2880,7 +2880,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C76" s="2" t="n">
@@ -2911,7 +2911,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C77" s="2" t="n">
@@ -2942,7 +2942,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C78" s="2" t="n">
@@ -2973,7 +2973,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C79" s="2" t="n">
@@ -3004,7 +3004,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C80" s="2" t="n">
@@ -3039,7 +3039,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C81" s="2" t="n">
@@ -3070,7 +3070,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C82" s="2" t="n">
@@ -3105,7 +3105,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C83" s="2" t="n">
@@ -3136,7 +3136,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C84" s="2" t="n">
@@ -3167,7 +3167,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C85" s="2" t="n">
@@ -3198,7 +3198,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C86" s="2" t="n">
@@ -3229,7 +3229,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C87" s="2" t="n">
@@ -3264,7 +3264,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C88" s="2" t="n">
@@ -3295,7 +3295,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C89" s="2" t="n">
@@ -3330,7 +3330,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C90" s="2" t="n">
@@ -3361,7 +3361,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C91" s="2" t="n">
@@ -3392,7 +3392,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C92" s="2" t="n">
@@ -3423,7 +3423,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C93" s="2" t="n">
@@ -3454,7 +3454,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C94" s="2" t="n">
@@ -3485,7 +3485,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C95" s="2" t="n">
@@ -3524,7 +3524,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C96" s="2" t="n">
@@ -3559,7 +3559,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C97" s="2" t="n">
@@ -3598,7 +3598,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C98" s="2" t="n">
@@ -3637,7 +3637,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C99" s="2" t="n">
@@ -3676,7 +3676,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C100" s="2" t="n">
@@ -3711,7 +3711,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C101" s="2" t="n">
@@ -3746,7 +3746,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C102" s="2" t="n">
@@ -3785,7 +3785,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C103" s="2" t="n">
@@ -3824,7 +3824,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C104" s="2" t="n">
@@ -3863,7 +3863,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C105" s="2" t="n">
@@ -3902,7 +3902,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C106" s="2" t="n">
@@ -3937,7 +3937,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C107" s="2" t="n">
@@ -3972,7 +3972,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C108" s="2" t="n">
@@ -4003,7 +4003,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C109" s="2" t="n">
@@ -4044,7 +4044,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C110" s="2" t="n">
@@ -4085,7 +4085,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C111" s="2" t="n">
@@ -4163,7 +4163,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C113" s="2" t="n">
@@ -4204,7 +4204,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C114" s="2" t="n">
@@ -4241,7 +4241,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C115" s="2" t="n">
@@ -4278,7 +4278,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C116" s="2" t="n">
@@ -4309,7 +4309,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C117" s="2" t="n">
@@ -4350,7 +4350,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C118" s="2" t="n">
@@ -4387,7 +4387,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C119" s="2" t="n">
@@ -4428,7 +4428,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C120" s="2" t="n">
@@ -4506,7 +4506,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C122" s="2" t="n">
@@ -4547,7 +4547,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C123" s="2" t="n">
@@ -4584,7 +4584,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C124" s="2" t="n">
@@ -4621,7 +4621,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C125" s="2" t="n">
@@ -4662,7 +4662,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C126" s="2" t="n">
@@ -4699,7 +4699,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C127" s="2" t="n">
@@ -4740,7 +4740,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C128" s="2" t="n">
@@ -4818,7 +4818,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C130" s="2" t="n">
@@ -4859,7 +4859,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C131" s="2" t="n">
@@ -4896,7 +4896,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C132" s="2" t="n">
@@ -4933,7 +4933,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C133" s="2" t="n">
@@ -4974,7 +4974,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C134" s="2" t="n">
@@ -5011,7 +5011,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C135" s="2" t="n">
@@ -5052,7 +5052,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C136" s="2" t="n">
@@ -5130,7 +5130,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C138" s="2" t="n">
@@ -5171,7 +5171,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C139" s="2" t="n">
@@ -5208,7 +5208,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C140" s="2" t="n">
@@ -5276,7 +5276,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C142" s="2" t="n">
@@ -5315,7 +5315,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C143" s="2" t="n">
@@ -5350,7 +5350,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C144" s="2" t="n">
@@ -5389,7 +5389,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C145" s="2" t="n">
@@ -5428,7 +5428,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C146" s="2" t="n">
@@ -5467,7 +5467,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C147" s="2" t="n">
@@ -5502,7 +5502,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C148" s="2" t="n">
@@ -5568,7 +5568,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C150" s="2" t="n">
@@ -5609,7 +5609,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C151" s="2" t="n">
@@ -5646,7 +5646,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C152" s="2" t="n">
@@ -5687,7 +5687,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C153" s="2" t="n">
@@ -5765,7 +5765,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C155" s="2" t="n">
@@ -5806,7 +5806,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C156" s="2" t="n">
@@ -5843,7 +5843,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C157" s="2" t="n">
@@ -5911,7 +5911,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C159" s="2" t="n">
@@ -5952,7 +5952,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C160" s="2" t="n">
@@ -5989,7 +5989,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C161" s="2" t="n">
@@ -6030,7 +6030,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C162" s="2" t="n">
@@ -6108,7 +6108,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C164" s="2" t="n">
@@ -6149,7 +6149,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C165" s="2" t="n">
@@ -6186,7 +6186,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C166" s="2" t="n">
@@ -6254,7 +6254,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C168" s="2" t="n">
@@ -6295,7 +6295,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C169" s="2" t="n">
@@ -6332,7 +6332,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C170" s="2" t="n">
@@ -6373,7 +6373,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C171" s="2" t="n">
@@ -6451,7 +6451,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C173" s="2" t="n">
@@ -6492,7 +6492,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C174" s="2" t="n">
@@ -6529,7 +6529,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C175" s="2" t="n">
@@ -6597,7 +6597,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C177" s="2" t="n">
@@ -6638,7 +6638,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C178" s="2" t="n">
@@ -6675,7 +6675,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C179" s="2" t="n">
@@ -6716,7 +6716,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C180" s="2" t="n">
@@ -6794,7 +6794,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C182" s="2" t="n">
@@ -6835,7 +6835,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C183" s="2" t="n">
@@ -6872,7 +6872,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C184" s="2" t="n">
@@ -6940,7 +6940,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C186" s="2" t="n">
@@ -6981,7 +6981,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C187" s="2" t="n">
@@ -7018,7 +7018,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C188" s="2" t="n">
@@ -7059,7 +7059,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C189" s="2" t="n">
@@ -7137,7 +7137,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C191" s="2" t="n">
@@ -7178,7 +7178,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C192" s="2" t="n">
@@ -7215,7 +7215,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C193" s="2" t="n">
@@ -7283,7 +7283,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C195" s="2" t="n">
@@ -7324,7 +7324,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C196" s="2" t="n">
@@ -7361,7 +7361,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C197" s="2" t="n">
@@ -7402,7 +7402,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C198" s="2" t="n">
@@ -7480,7 +7480,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C200" s="2" t="n">
@@ -7521,7 +7521,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C201" s="2" t="n">
@@ -7558,7 +7558,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C202" s="2" t="n">
@@ -7626,7 +7626,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C204" s="2" t="n">
@@ -7667,7 +7667,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C205" s="2" t="n">
@@ -7708,7 +7708,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C206" s="2" t="n">
@@ -7786,7 +7786,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C208" s="2" t="n">
@@ -7827,7 +7827,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C209" s="2" t="n">
@@ -7864,7 +7864,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C210" s="2" t="n">
@@ -7901,7 +7901,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C211" s="2" t="n">
@@ -7963,7 +7963,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C213" s="2" t="n">
@@ -8004,7 +8004,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C214" s="2" t="n">
@@ -8041,7 +8041,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C215" s="2" t="n">
@@ -8082,7 +8082,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C216" s="2" t="n">
@@ -8160,7 +8160,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C218" s="2" t="n">
@@ -8201,7 +8201,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C219" s="2" t="n">
@@ -8238,7 +8238,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C220" s="2" t="n">
@@ -8306,7 +8306,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C222" s="2" t="n">
@@ -8347,7 +8347,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C223" s="2" t="n">
@@ -8384,7 +8384,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C224" s="2" t="n">
@@ -8425,7 +8425,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C225" s="2" t="n">
@@ -8503,7 +8503,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C227" s="2" t="n">
@@ -8544,7 +8544,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C228" s="2" t="n">
@@ -8581,7 +8581,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C229" s="2" t="n">
@@ -8649,7 +8649,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C231" s="2" t="n">
@@ -8690,7 +8690,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C232" s="2" t="n">
@@ -8731,7 +8731,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C233" s="2" t="n">
@@ -8809,7 +8809,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C235" s="2" t="n">
@@ -8850,7 +8850,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C236" s="2" t="n">
@@ -8887,7 +8887,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C237" s="2" t="n">
@@ -8924,7 +8924,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C238" s="2" t="n">
@@ -8986,7 +8986,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C240" s="2" t="n">
@@ -9027,7 +9027,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C241" s="2" t="n">
@@ -9064,7 +9064,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C242" s="2" t="n">
@@ -9105,7 +9105,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C243" s="2" t="n">
@@ -9183,7 +9183,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C245" s="2" t="n">
@@ -9224,7 +9224,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C246" s="2" t="n">
@@ -9261,7 +9261,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C247" s="2" t="n">
@@ -9329,7 +9329,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C249" s="2" t="n">
@@ -9370,7 +9370,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C250" s="2" t="n">
@@ -9407,7 +9407,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C251" s="2" t="n">
@@ -9448,7 +9448,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C252" s="2" t="n">
@@ -9526,7 +9526,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C254" s="2" t="n">
@@ -9567,7 +9567,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C255" s="2" t="n">
@@ -9604,7 +9604,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C256" s="2" t="n">
@@ -9672,7 +9672,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C258" s="2" t="n">
@@ -9713,7 +9713,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C259" s="2" t="n">
@@ -9750,7 +9750,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C260" s="2" t="n">
@@ -9791,7 +9791,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C261" s="2" t="n">
@@ -9869,7 +9869,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C263" s="2" t="n">
@@ -9910,7 +9910,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C264" s="2" t="n">
@@ -9947,7 +9947,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C265" s="2" t="n">
@@ -10015,7 +10015,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C267" s="2" t="n">
@@ -10056,7 +10056,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C268" s="2" t="n">
@@ -10093,7 +10093,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C269" s="2" t="n">
@@ -10134,7 +10134,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C270" s="2" t="n">
@@ -10212,7 +10212,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C272" s="2" t="n">
@@ -10253,7 +10253,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C273" s="2" t="n">
@@ -10290,7 +10290,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C274" s="2" t="n">
@@ -10358,7 +10358,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C276" s="2" t="n">
@@ -10399,7 +10399,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C277" s="2" t="n">
@@ -10436,7 +10436,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C278" s="2" t="n">
@@ -10477,7 +10477,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C279" s="2" t="n">
@@ -10555,7 +10555,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C281" s="2" t="n">
@@ -10596,7 +10596,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C282" s="2" t="n">
@@ -10633,7 +10633,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C283" s="2" t="n">
@@ -10701,7 +10701,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C285" s="2" t="n">
@@ -10742,7 +10742,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C286" s="2" t="n">
@@ -10779,7 +10779,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C287" s="2" t="n">
@@ -10820,7 +10820,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C288" s="2" t="n">
@@ -10898,7 +10898,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C290" s="2" t="n">
@@ -10939,7 +10939,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C291" s="2" t="n">
@@ -10976,7 +10976,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C292" s="2" t="n">
@@ -11044,7 +11044,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C294" s="2" t="n">
@@ -11085,7 +11085,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C295" s="2" t="n">
@@ -11122,7 +11122,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C296" s="2" t="n">
@@ -11163,7 +11163,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C297" s="2" t="n">
@@ -11241,7 +11241,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C299" s="2" t="n">
@@ -11282,7 +11282,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C300" s="2" t="n">
@@ -11319,7 +11319,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C301" s="2" t="n">
@@ -11387,7 +11387,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C303" s="2" t="n">
@@ -11428,7 +11428,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C304" s="2" t="n">
@@ -11465,7 +11465,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C305" s="2" t="n">
@@ -11506,7 +11506,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C306" s="2" t="n">
@@ -11584,7 +11584,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C308" s="2" t="n">
@@ -11625,7 +11625,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C309" s="2" t="n">
@@ -11662,7 +11662,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C310" s="2" t="n">
@@ -11730,7 +11730,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C312" s="2" t="n">
@@ -11771,7 +11771,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C313" s="2" t="n">
@@ -11808,7 +11808,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C314" s="2" t="n">
@@ -11849,7 +11849,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C315" s="2" t="n">
@@ -11927,7 +11927,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C317" s="2" t="n">
@@ -11968,7 +11968,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C318" s="2" t="n">
@@ -12005,7 +12005,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C319" s="2" t="n">
@@ -12073,7 +12073,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C321" s="2" t="n">
@@ -12114,7 +12114,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C322" s="2" t="n">
@@ -12151,7 +12151,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C323" s="2" t="n">
@@ -12192,7 +12192,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C324" s="2" t="n">
@@ -12270,7 +12270,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C326" s="2" t="n">
@@ -12311,7 +12311,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C327" s="2" t="n">
@@ -12348,7 +12348,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C328" s="2" t="n">
@@ -12416,7 +12416,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C330" s="2" t="n">
@@ -12457,7 +12457,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C331" s="2" t="n">
@@ -12494,7 +12494,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C332" s="2" t="n">
@@ -12535,7 +12535,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C333" s="2" t="n">
@@ -12613,7 +12613,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C335" s="2" t="n">
@@ -12654,7 +12654,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C336" s="2" t="n">
@@ -12691,7 +12691,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C337" s="2" t="n">
@@ -12759,7 +12759,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C339" s="2" t="n">
@@ -12798,7 +12798,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C340" s="2" t="n">
@@ -12833,7 +12833,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C341" s="2" t="n">
@@ -12872,7 +12872,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C342" s="2" t="n">
@@ -12911,7 +12911,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C343" s="2" t="n">
@@ -12950,7 +12950,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C344" s="2" t="n">
@@ -12985,7 +12985,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C345" s="2" t="n">
@@ -13051,7 +13051,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C347" s="2" t="n">
@@ -13090,7 +13090,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C348" s="2" t="n">
@@ -13125,7 +13125,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C349" s="2" t="n">
@@ -13164,7 +13164,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C350" s="2" t="n">
@@ -13203,7 +13203,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C351" s="2" t="n">
@@ -13242,7 +13242,7 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C352" s="2" t="n">
@@ -13277,7 +13277,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C353" s="2" t="n">
@@ -13343,7 +13343,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C355" s="2" t="n">
@@ -13382,7 +13382,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C356" s="2" t="n">
@@ -13417,7 +13417,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C357" s="2" t="n">
@@ -13456,7 +13456,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C358" s="2" t="n">
@@ -13495,7 +13495,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C359" s="2" t="n">
@@ -13534,7 +13534,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C360" s="2" t="n">
@@ -13569,7 +13569,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C361" s="2" t="n">
@@ -13635,7 +13635,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C363" s="2" t="n">
@@ -13674,7 +13674,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C364" s="2" t="n">
@@ -13713,7 +13713,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C365" s="2" t="n">
@@ -13752,7 +13752,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C366" s="2" t="n">
@@ -13791,7 +13791,7 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C367" s="2" t="n">
@@ -13826,7 +13826,7 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C368" s="2" t="n">
@@ -13892,7 +13892,7 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C370" s="2" t="n">
@@ -13933,7 +13933,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C371" s="2" t="n">
@@ -13970,7 +13970,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C372" s="2" t="n">
@@ -14011,7 +14011,7 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C373" s="2" t="n">
@@ -14089,7 +14089,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C375" s="2" t="n">
@@ -14130,7 +14130,7 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C376" s="2" t="n">
@@ -14167,7 +14167,7 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C377" s="2" t="n">
@@ -14235,7 +14235,7 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C379" s="2" t="n">
@@ -14276,7 +14276,7 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C380" s="2" t="n">
@@ -14313,7 +14313,7 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C381" s="2" t="n">
@@ -14354,7 +14354,7 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C382" s="2" t="n">
@@ -14432,7 +14432,7 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C384" s="2" t="n">
@@ -14473,7 +14473,7 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C385" s="2" t="n">
@@ -14510,7 +14510,7 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C386" s="2" t="n">
@@ -14578,7 +14578,7 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C388" s="2" t="n">
@@ -14617,7 +14617,7 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C389" s="2" t="n">
@@ -14656,7 +14656,7 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C390" s="2" t="n">
@@ -14695,7 +14695,7 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C391" s="2" t="n">
@@ -14734,7 +14734,7 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C392" s="2" t="n">
@@ -14769,7 +14769,7 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C393" s="2" t="n">
@@ -14804,7 +14804,7 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C394" s="2" t="n">
@@ -14909,7 +14909,7 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C397" s="2" t="n">
@@ -14950,7 +14950,7 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C398" s="2" t="n">
@@ -14987,7 +14987,7 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C399" s="2" t="n">
@@ -15028,7 +15028,7 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C400" s="2" t="n">
@@ -15106,7 +15106,7 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C402" s="2" t="n">
@@ -15147,7 +15147,7 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C403" s="2" t="n">
@@ -15184,7 +15184,7 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C404" s="2" t="n">
@@ -15252,7 +15252,7 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C406" s="2" t="n">
@@ -15326,7 +15326,7 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C408" s="2" t="n">
@@ -15365,7 +15365,7 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C409" s="2" t="n">
@@ -15404,7 +15404,7 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C410" s="2" t="n">
@@ -15443,7 +15443,7 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C411" s="2" t="n">
@@ -15482,7 +15482,7 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C412" s="2" t="n">
@@ -15517,7 +15517,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C413" s="2" t="n">
@@ -15583,7 +15583,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C415" s="2" t="n">
@@ -15657,7 +15657,7 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C417" s="2" t="n">
@@ -15696,7 +15696,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C418" s="2" t="n">
@@ -15735,7 +15735,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C419" s="2" t="n">
@@ -15774,7 +15774,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C420" s="2" t="n">
@@ -15813,7 +15813,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C421" s="2" t="n">
@@ -15848,7 +15848,7 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C422" s="2" t="n">
@@ -15914,7 +15914,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C424" s="2" t="n">
@@ -15955,7 +15955,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C425" s="2" t="n">
@@ -15992,7 +15992,7 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C426" s="2" t="n">
@@ -16033,7 +16033,7 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C427" s="2" t="n">
@@ -16111,7 +16111,7 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C429" s="2" t="n">
@@ -16152,7 +16152,7 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C430" s="2" t="n">
@@ -16189,7 +16189,7 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C431" s="2" t="n">
@@ -16257,7 +16257,7 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C433" s="2" t="n">
@@ -16331,7 +16331,7 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C435" s="2" t="n">
@@ -16370,7 +16370,7 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C436" s="2" t="n">
@@ -16409,7 +16409,7 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C437" s="2" t="n">
@@ -16448,7 +16448,7 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C438" s="2" t="n">
@@ -16487,7 +16487,7 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C439" s="2" t="n">
@@ -16522,7 +16522,7 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C440" s="2" t="n">
@@ -16588,7 +16588,7 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C442" s="2" t="n">
@@ -16629,7 +16629,7 @@
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C443" s="2" t="n">
@@ -16666,7 +16666,7 @@
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C444" s="2" t="n">
@@ -16707,7 +16707,7 @@
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C445" s="2" t="n">
@@ -16785,7 +16785,7 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C447" s="2" t="n">
@@ -16826,7 +16826,7 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C448" s="2" t="n">
@@ -16863,7 +16863,7 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C449" s="2" t="n">
@@ -16931,7 +16931,7 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C451" s="2" t="n">
@@ -17005,7 +17005,7 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C453" s="2" t="n">
@@ -17044,7 +17044,7 @@
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C454" s="2" t="n">
@@ -17083,7 +17083,7 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C455" s="2" t="n">
@@ -17122,7 +17122,7 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C456" s="2" t="n">
@@ -17161,7 +17161,7 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C457" s="2" t="n">
@@ -17196,7 +17196,7 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C458" s="2" t="n">
@@ -17262,7 +17262,7 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C460" s="2" t="n">
@@ -17336,7 +17336,7 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C462" s="2" t="n">
@@ -17375,7 +17375,7 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C463" s="2" t="n">
@@ -17414,7 +17414,7 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C464" s="2" t="n">
@@ -17453,7 +17453,7 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C465" s="2" t="n">
@@ -17492,7 +17492,7 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C466" s="2" t="n">
@@ -17527,7 +17527,7 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C467" s="2" t="n">
@@ -17593,7 +17593,7 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C469" s="2" t="n">
@@ -17667,7 +17667,7 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C471" s="2" t="n">
@@ -17706,7 +17706,7 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C472" s="2" t="n">
@@ -17745,7 +17745,7 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C473" s="2" t="n">
@@ -17784,7 +17784,7 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C474" s="2" t="n">
@@ -17823,7 +17823,7 @@
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C475" s="2" t="n">
@@ -17858,7 +17858,7 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C476" s="2" t="n">

--- a/data/Lakes/LakeWiritoaComposite_a033f773e2.xlsx
+++ b/data/Lakes/LakeWiritoaComposite_a033f773e2.xlsx
@@ -67,7 +67,7 @@
     <t>Visual Clarity</t>
   </si>
   <si>
-    <t>BIOVOL</t>
+    <t>Cyanobacteria Biovolume</t>
   </si>
   <si>
     <t>&lt;0.0100</t>
